--- a/results/mp/deberta/corona/confidence/168/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="172">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,115 +61,115 @@
     <t>low</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>funny</t>
   </si>
   <si>
     <t>save</t>
@@ -895,10 +895,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -977,7 +977,7 @@
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>0.967741935483871</v>
@@ -1077,7 +1077,7 @@
         <v>135</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <v>0.9444444444444444</v>
@@ -1127,7 +1127,7 @@
         <v>52</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>0.9111111111111111</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7">
         <v>0.8983050847457628</v>
@@ -1227,7 +1227,7 @@
         <v>393</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8">
         <v>0.8947368421052632</v>
@@ -1277,7 +1277,7 @@
         <v>132</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <v>0.8888888888888888</v>
@@ -1306,28 +1306,28 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08280254777070063</v>
+        <v>0.01354401805869074</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>196</v>
+        <v>395</v>
       </c>
       <c r="E10">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F10">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>144</v>
+        <v>1748</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10">
         <v>0.8611111111111112</v>
@@ -1356,28 +1356,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01354401805869074</v>
+        <v>0.01131045241809672</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>395</v>
+        <v>572</v>
       </c>
       <c r="E11">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F11">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1748</v>
+        <v>2535</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11">
         <v>0.8461538461538461</v>
@@ -1406,13 +1406,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01131045241809672</v>
+        <v>0.007818052594171997</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>572</v>
+        <v>409</v>
       </c>
       <c r="E12">
         <v>0.95</v>
@@ -1424,10 +1424,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>2535</v>
+        <v>2792</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12">
         <v>0.84251968503937</v>
@@ -1452,32 +1452,8 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.007818052594171997</v>
-      </c>
-      <c r="C13">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <v>409</v>
-      </c>
-      <c r="E13">
-        <v>0.95</v>
-      </c>
-      <c r="F13">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2792</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13">
         <v>0.8272727272727273</v>
@@ -1503,7 +1479,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14">
         <v>0.825</v>
@@ -1529,7 +1505,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15">
         <v>0.8148148148148148</v>
@@ -1555,7 +1531,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K16">
         <v>0.7941176470588235</v>
@@ -1581,7 +1557,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17">
         <v>0.7727272727272727</v>
@@ -1607,7 +1583,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18">
         <v>0.7719298245614035</v>
@@ -1633,7 +1609,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19">
         <v>0.7643312101910829</v>
@@ -1659,7 +1635,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20">
         <v>0.746031746031746</v>
@@ -1685,7 +1661,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21">
         <v>0.7407407407407407</v>
@@ -1711,7 +1687,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K22">
         <v>0.72</v>
@@ -1737,7 +1713,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23">
         <v>0.7083333333333334</v>
@@ -1763,7 +1739,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24">
         <v>0.693069306930693</v>
@@ -1789,7 +1765,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25">
         <v>0.6785714285714286</v>
@@ -1815,7 +1791,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26">
         <v>0.6666666666666666</v>
@@ -1841,7 +1817,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>0.66</v>
@@ -1867,59 +1843,59 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.6478260869565218</v>
+        <v>0.6408450704225352</v>
       </c>
       <c r="L28">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="M28">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.6408450704225352</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L29">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
         <v>0.6382978723404256</v>
@@ -1928,16 +1904,16 @@
         <v>30</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <v>17</v>
@@ -1945,16 +1921,16 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.6382978723404256</v>
+        <v>0.6234309623430963</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1966,12 +1942,12 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32">
         <v>0.59375</v>
@@ -1997,7 +1973,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33">
         <v>0.5714285714285714</v>
@@ -2023,7 +1999,7 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34">
         <v>0.5652173913043478</v>
@@ -2049,28 +2025,28 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.5596330275229358</v>
+        <v>0.538235294117647</v>
       </c>
       <c r="L35">
         <v>183</v>
       </c>
       <c r="M35">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="N35">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -4207,7 +4183,7 @@
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K118">
         <v>0.1764132553606238</v>
@@ -4285,7 +4261,7 @@
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K121">
         <v>0.1750825861255309</v>
@@ -4935,7 +4911,7 @@
     </row>
     <row r="146" spans="10:17">
       <c r="J146" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K146">
         <v>0.1217363950927965</v>
